--- a/data/pca/factorExposure/factorExposure_2016-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01130192063427702</v>
+        <v>0.01288097466029817</v>
       </c>
       <c r="C2">
-        <v>-0.05481478540814794</v>
+        <v>0.04086675286808988</v>
       </c>
       <c r="D2">
-        <v>0.04229530415618621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05783121375270959</v>
+      </c>
+      <c r="E2">
+        <v>0.08192704551505227</v>
+      </c>
+      <c r="F2">
+        <v>0.08271782729639396</v>
+      </c>
+      <c r="G2">
+        <v>0.004242974196179124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04080927832308934</v>
+        <v>0.0243756374855914</v>
       </c>
       <c r="C3">
-        <v>-0.1143383579636922</v>
+        <v>0.07116032589285239</v>
       </c>
       <c r="D3">
-        <v>0.09507356834613961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0799144078369388</v>
+      </c>
+      <c r="E3">
+        <v>0.06523573561275567</v>
+      </c>
+      <c r="F3">
+        <v>-0.02318218032112526</v>
+      </c>
+      <c r="G3">
+        <v>-0.04083847188068183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05856742595456532</v>
+        <v>0.05683561119333295</v>
       </c>
       <c r="C4">
-        <v>-0.06234272220345315</v>
+        <v>0.06520905662203305</v>
       </c>
       <c r="D4">
-        <v>0.02977580497701207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05279814221371505</v>
+      </c>
+      <c r="E4">
+        <v>0.08048906041982913</v>
+      </c>
+      <c r="F4">
+        <v>0.0659839396377182</v>
+      </c>
+      <c r="G4">
+        <v>-0.07164547086425724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03885757002607474</v>
+        <v>0.03482293869514465</v>
       </c>
       <c r="C6">
-        <v>-0.03877429322642981</v>
+        <v>0.03013877311672894</v>
       </c>
       <c r="D6">
-        <v>0.03384764048188085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05887120262935779</v>
+      </c>
+      <c r="E6">
+        <v>0.08155974086735614</v>
+      </c>
+      <c r="F6">
+        <v>0.05040473943984979</v>
+      </c>
+      <c r="G6">
+        <v>-0.05494395528476464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02087537941464278</v>
+        <v>0.01739403549107129</v>
       </c>
       <c r="C7">
-        <v>-0.04649789775546229</v>
+        <v>0.03871506865236092</v>
       </c>
       <c r="D7">
-        <v>-0.005419635425360617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03375868090042563</v>
+      </c>
+      <c r="E7">
+        <v>0.05786175562230857</v>
+      </c>
+      <c r="F7">
+        <v>0.09633846630376436</v>
+      </c>
+      <c r="G7">
+        <v>-0.06079257586411672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005533668812879321</v>
+        <v>0.003095212913460962</v>
       </c>
       <c r="C8">
-        <v>-0.0356973941396454</v>
+        <v>0.03203565568192845</v>
       </c>
       <c r="D8">
-        <v>0.02529850508066066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03060054227967951</v>
+      </c>
+      <c r="E8">
+        <v>0.05387401068069089</v>
+      </c>
+      <c r="F8">
+        <v>0.03213305377252938</v>
+      </c>
+      <c r="G8">
+        <v>-0.02483418738994506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03233354429700858</v>
+        <v>0.03625835552232713</v>
       </c>
       <c r="C9">
-        <v>-0.04839579432652275</v>
+        <v>0.05184579493523479</v>
       </c>
       <c r="D9">
-        <v>0.01435120644448059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03786127989508199</v>
+      </c>
+      <c r="E9">
+        <v>0.06826532879866261</v>
+      </c>
+      <c r="F9">
+        <v>0.07551697694288037</v>
+      </c>
+      <c r="G9">
+        <v>-0.06074294402423155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08393784618437007</v>
+        <v>0.1045573915192716</v>
       </c>
       <c r="C10">
-        <v>0.1883805120202607</v>
+        <v>-0.1936212246824801</v>
       </c>
       <c r="D10">
-        <v>-0.005542290598517656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01138482863652301</v>
+      </c>
+      <c r="E10">
+        <v>0.04372546153086878</v>
+      </c>
+      <c r="F10">
+        <v>0.02679481906259605</v>
+      </c>
+      <c r="G10">
+        <v>-0.02459985818194673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03940100455360929</v>
+        <v>0.03512063028452179</v>
       </c>
       <c r="C11">
-        <v>-0.05442437639926374</v>
+        <v>0.04958712380705461</v>
       </c>
       <c r="D11">
-        <v>0.01043146579616833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03020167706683666</v>
+      </c>
+      <c r="E11">
+        <v>0.02293220371043024</v>
+      </c>
+      <c r="F11">
+        <v>0.05951863819278724</v>
+      </c>
+      <c r="G11">
+        <v>-0.04821644291639262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0414848314316223</v>
+        <v>0.03740344722165278</v>
       </c>
       <c r="C12">
-        <v>-0.04937076108760268</v>
+        <v>0.04680700660512281</v>
       </c>
       <c r="D12">
-        <v>0.001252983660449539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02332558031026534</v>
+      </c>
+      <c r="E12">
+        <v>0.03034870605140876</v>
+      </c>
+      <c r="F12">
+        <v>0.06102429271855237</v>
+      </c>
+      <c r="G12">
+        <v>-0.04438198925551629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01141477225988196</v>
+        <v>0.01017600269635445</v>
       </c>
       <c r="C13">
-        <v>-0.05317540209882497</v>
+        <v>0.04221700760461856</v>
       </c>
       <c r="D13">
-        <v>0.01366634865954745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04527421070242425</v>
+      </c>
+      <c r="E13">
+        <v>0.09320215963618757</v>
+      </c>
+      <c r="F13">
+        <v>0.08638078451122275</v>
+      </c>
+      <c r="G13">
+        <v>-0.06765249346585603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006599394996872608</v>
+        <v>0.004172887746081342</v>
       </c>
       <c r="C14">
-        <v>-0.04155255033088504</v>
+        <v>0.03343513751411997</v>
       </c>
       <c r="D14">
-        <v>-0.01223323866061753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02199649551317676</v>
+      </c>
+      <c r="E14">
+        <v>0.0459966200194424</v>
+      </c>
+      <c r="F14">
+        <v>0.09490071851634226</v>
+      </c>
+      <c r="G14">
+        <v>-0.04533939780460928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002235117632734172</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004977243752090219</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00684818049018981</v>
+      </c>
+      <c r="E15">
+        <v>0.003736207226500564</v>
+      </c>
+      <c r="F15">
+        <v>0.006117331811240959</v>
+      </c>
+      <c r="G15">
+        <v>-0.003027127034286164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03633747667273859</v>
+        <v>0.03331958812474813</v>
       </c>
       <c r="C16">
-        <v>-0.04954409663296949</v>
+        <v>0.04568323845852341</v>
       </c>
       <c r="D16">
-        <v>0.007010719368749086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02360714092557108</v>
+      </c>
+      <c r="E16">
+        <v>0.0364944876319245</v>
+      </c>
+      <c r="F16">
+        <v>0.06403600576815983</v>
+      </c>
+      <c r="G16">
+        <v>-0.03324204544975398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01846279893258039</v>
+        <v>0.01449819037595716</v>
       </c>
       <c r="C19">
-        <v>-0.0661320424760411</v>
+        <v>0.04786774793426625</v>
       </c>
       <c r="D19">
-        <v>0.08806981785215827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0879074864111483</v>
+      </c>
+      <c r="E19">
+        <v>0.1054980317767791</v>
+      </c>
+      <c r="F19">
+        <v>0.08368666185423902</v>
+      </c>
+      <c r="G19">
+        <v>-0.01848164640944713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01451158556657735</v>
+        <v>0.01206564778998991</v>
       </c>
       <c r="C20">
-        <v>-0.04854566699248837</v>
+        <v>0.03930317349663464</v>
       </c>
       <c r="D20">
-        <v>0.01290157414959183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03217616588452763</v>
+      </c>
+      <c r="E20">
+        <v>0.07390112812237479</v>
+      </c>
+      <c r="F20">
+        <v>0.07140860099197874</v>
+      </c>
+      <c r="G20">
+        <v>-0.04425180739247925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008111857647022234</v>
+        <v>0.008103827043727196</v>
       </c>
       <c r="C21">
-        <v>-0.05056703803543476</v>
+        <v>0.04272640239741757</v>
       </c>
       <c r="D21">
-        <v>0.03907573776468026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.059041991016965</v>
+      </c>
+      <c r="E21">
+        <v>0.1149017570244208</v>
+      </c>
+      <c r="F21">
+        <v>0.1146486310342351</v>
+      </c>
+      <c r="G21">
+        <v>-0.06788178818448459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007157594079060598</v>
+        <v>0.002502222989196652</v>
       </c>
       <c r="C22">
-        <v>-0.0005145169813618073</v>
+        <v>0.02528661186714802</v>
       </c>
       <c r="D22">
-        <v>0.001737263799514112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04175932033621847</v>
+      </c>
+      <c r="E22">
+        <v>0.03703090496161227</v>
+      </c>
+      <c r="F22">
+        <v>0.003644749783211222</v>
+      </c>
+      <c r="G22">
+        <v>-0.05046047488476103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007213421637905562</v>
+        <v>0.002573655113387616</v>
       </c>
       <c r="C23">
-        <v>-0.000514584760540406</v>
+        <v>0.02544326935687598</v>
       </c>
       <c r="D23">
-        <v>0.001743833967081509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0414122437670668</v>
+      </c>
+      <c r="E23">
+        <v>0.03729843692498215</v>
+      </c>
+      <c r="F23">
+        <v>0.0033350904676693</v>
+      </c>
+      <c r="G23">
+        <v>-0.05054315422048691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03295798012284099</v>
+        <v>0.0331840480069738</v>
       </c>
       <c r="C24">
-        <v>-0.05132730044336381</v>
+        <v>0.05328386945890046</v>
       </c>
       <c r="D24">
-        <v>0.00735970724561274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02369439481732772</v>
+      </c>
+      <c r="E24">
+        <v>0.03782594682090999</v>
+      </c>
+      <c r="F24">
+        <v>0.0683509839890578</v>
+      </c>
+      <c r="G24">
+        <v>-0.04371106569962761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04655916832280781</v>
+        <v>0.04279149100315175</v>
       </c>
       <c r="C25">
-        <v>-0.06373385464429786</v>
+        <v>0.05782194350550262</v>
       </c>
       <c r="D25">
-        <v>-0.003747222659255074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02203164081620595</v>
+      </c>
+      <c r="E25">
+        <v>0.02858373953649888</v>
+      </c>
+      <c r="F25">
+        <v>0.06449244427989641</v>
+      </c>
+      <c r="G25">
+        <v>-0.05998719975278449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01528798086153446</v>
+        <v>0.01450738365220169</v>
       </c>
       <c r="C26">
-        <v>-0.01938235335794476</v>
+        <v>0.01764413106646889</v>
       </c>
       <c r="D26">
-        <v>7.029211596629803e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0211139436143433</v>
+      </c>
+      <c r="E26">
+        <v>0.04746910195865532</v>
+      </c>
+      <c r="F26">
+        <v>0.07112637017580301</v>
+      </c>
+      <c r="G26">
+        <v>-0.02122648650686556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09986117572776999</v>
+        <v>0.1404772233285661</v>
       </c>
       <c r="C28">
-        <v>0.2400940654592542</v>
+        <v>-0.2471401889114564</v>
       </c>
       <c r="D28">
-        <v>-0.007730935738632763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02761123730869931</v>
+      </c>
+      <c r="E28">
+        <v>0.05963138171262448</v>
+      </c>
+      <c r="F28">
+        <v>0.04512007963962812</v>
+      </c>
+      <c r="G28">
+        <v>-0.04473648237184678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006822835451701687</v>
+        <v>0.005485735763619004</v>
       </c>
       <c r="C29">
-        <v>-0.03354921270506945</v>
+        <v>0.02972189709094029</v>
       </c>
       <c r="D29">
-        <v>-0.01567363109803823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01581059970493125</v>
+      </c>
+      <c r="E29">
+        <v>0.04562608029956689</v>
+      </c>
+      <c r="F29">
+        <v>0.08414940908463153</v>
+      </c>
+      <c r="G29">
+        <v>-0.05517198741784045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04258914379176183</v>
+        <v>0.03898225563250114</v>
       </c>
       <c r="C30">
-        <v>-0.05723197819292519</v>
+        <v>0.05881924936756557</v>
       </c>
       <c r="D30">
-        <v>0.06373624556855473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09594388150623931</v>
+      </c>
+      <c r="E30">
+        <v>0.07066105685749839</v>
+      </c>
+      <c r="F30">
+        <v>0.08985706372276037</v>
+      </c>
+      <c r="G30">
+        <v>-0.03241104076116754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05545103789777066</v>
+        <v>0.0556203684383158</v>
       </c>
       <c r="C31">
-        <v>-0.0465976446043591</v>
+        <v>0.06159200764784788</v>
       </c>
       <c r="D31">
-        <v>-0.02109378454453341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01214165851490965</v>
+      </c>
+      <c r="E31">
+        <v>0.06814765832465104</v>
+      </c>
+      <c r="F31">
+        <v>0.04688544532925232</v>
+      </c>
+      <c r="G31">
+        <v>-0.07295727054775097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001953434607764514</v>
+        <v>0.005042837272375951</v>
       </c>
       <c r="C32">
-        <v>-0.04029193150464175</v>
+        <v>0.0332893376861109</v>
       </c>
       <c r="D32">
-        <v>0.04700649625612865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05254845084993306</v>
+      </c>
+      <c r="E32">
+        <v>0.05431932582767043</v>
+      </c>
+      <c r="F32">
+        <v>0.07274914157523565</v>
+      </c>
+      <c r="G32">
+        <v>-0.02506714529765974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02632420119579199</v>
+        <v>0.02349041127152795</v>
       </c>
       <c r="C33">
-        <v>-0.06335591127764982</v>
+        <v>0.05510583937921015</v>
       </c>
       <c r="D33">
-        <v>0.04077274272924132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06971869345366415</v>
+      </c>
+      <c r="E33">
+        <v>0.08582174700642105</v>
+      </c>
+      <c r="F33">
+        <v>0.1024187129465275</v>
+      </c>
+      <c r="G33">
+        <v>-0.06899363493810604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0442286907483255</v>
+        <v>0.04015603005337109</v>
       </c>
       <c r="C34">
-        <v>-0.06862587254037608</v>
+        <v>0.06583068484328967</v>
       </c>
       <c r="D34">
-        <v>0.005917535176482689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03257862630907749</v>
+      </c>
+      <c r="E34">
+        <v>0.009855485160777375</v>
+      </c>
+      <c r="F34">
+        <v>0.07371938650390555</v>
+      </c>
+      <c r="G34">
+        <v>-0.04723933156389687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01525191555861146</v>
+        <v>0.01396447443187419</v>
       </c>
       <c r="C36">
-        <v>-0.01736417443536406</v>
+        <v>0.01318581450579469</v>
       </c>
       <c r="D36">
-        <v>-0.002344395600454829</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02146080567083085</v>
+      </c>
+      <c r="E36">
+        <v>0.05491164226292967</v>
+      </c>
+      <c r="F36">
+        <v>0.06628648298934917</v>
+      </c>
+      <c r="G36">
+        <v>-0.04180421939697911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0280851783929719</v>
+        <v>0.0223033194663103</v>
       </c>
       <c r="C38">
-        <v>-0.03050316561880684</v>
+        <v>0.02314679761079804</v>
       </c>
       <c r="D38">
-        <v>-0.01203469546967518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01811153777353479</v>
+      </c>
+      <c r="E38">
+        <v>0.04620646907530467</v>
+      </c>
+      <c r="F38">
+        <v>0.05288454257981354</v>
+      </c>
+      <c r="G38">
+        <v>-0.02716149740625549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04321600786607242</v>
+        <v>0.03816059274622033</v>
       </c>
       <c r="C39">
-        <v>-0.06705131618741877</v>
+        <v>0.06487232689590469</v>
       </c>
       <c r="D39">
-        <v>0.01745583936437184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0488378030099591</v>
+      </c>
+      <c r="E39">
+        <v>0.04206792984950181</v>
+      </c>
+      <c r="F39">
+        <v>0.08768385727780001</v>
+      </c>
+      <c r="G39">
+        <v>-0.03080401947051041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01219064423192525</v>
+        <v>0.01269524938153051</v>
       </c>
       <c r="C40">
-        <v>-0.0510375267535044</v>
+        <v>0.03728063146544271</v>
       </c>
       <c r="D40">
-        <v>0.02107701994165795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03000378233365151</v>
+      </c>
+      <c r="E40">
+        <v>0.08116431034778909</v>
+      </c>
+      <c r="F40">
+        <v>0.05945935727884893</v>
+      </c>
+      <c r="G40">
+        <v>-0.07863722748188486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02145142508913808</v>
+        <v>0.01913662492997651</v>
       </c>
       <c r="C41">
-        <v>-0.01313436031313493</v>
+        <v>0.01039686122438194</v>
       </c>
       <c r="D41">
-        <v>0.002794333932474822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01448689478367302</v>
+      </c>
+      <c r="E41">
+        <v>0.0546766020595516</v>
+      </c>
+      <c r="F41">
+        <v>0.06029713634203233</v>
+      </c>
+      <c r="G41">
+        <v>-0.03391023787104902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03776307486552291</v>
+        <v>0.0287289606754553</v>
       </c>
       <c r="C43">
-        <v>-0.03475055178014865</v>
+        <v>0.02527141226892276</v>
       </c>
       <c r="D43">
-        <v>0.0296811910505324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04116737931141472</v>
+      </c>
+      <c r="E43">
+        <v>0.06947795116015358</v>
+      </c>
+      <c r="F43">
+        <v>0.06383369232143091</v>
+      </c>
+      <c r="G43">
+        <v>-0.05808785751714632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0111548451574271</v>
+        <v>0.01281515881272797</v>
       </c>
       <c r="C44">
-        <v>-0.06787405609194462</v>
+        <v>0.05016596620651759</v>
       </c>
       <c r="D44">
-        <v>0.01133929212866721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03242954431151965</v>
+      </c>
+      <c r="E44">
+        <v>0.08487877198284183</v>
+      </c>
+      <c r="F44">
+        <v>0.07124798507545091</v>
+      </c>
+      <c r="G44">
+        <v>-0.02515993806027456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007538056261246228</v>
+        <v>0.00848859326636571</v>
       </c>
       <c r="C46">
-        <v>-0.02999668387206058</v>
+        <v>0.02960042978200219</v>
       </c>
       <c r="D46">
-        <v>-0.01654606732230459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009727709238878099</v>
+      </c>
+      <c r="E46">
+        <v>0.05501037398608289</v>
+      </c>
+      <c r="F46">
+        <v>0.09821421320177907</v>
+      </c>
+      <c r="G46">
+        <v>-0.05202509244023901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08168954794127577</v>
+        <v>0.08685778702496601</v>
       </c>
       <c r="C47">
-        <v>-0.07347745310709897</v>
+        <v>0.08268219557352249</v>
       </c>
       <c r="D47">
-        <v>-0.02162696855579122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02061447652593268</v>
+      </c>
+      <c r="E47">
+        <v>0.07099614232118044</v>
+      </c>
+      <c r="F47">
+        <v>0.04599894593452003</v>
+      </c>
+      <c r="G47">
+        <v>-0.07275785899557749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01768042420761537</v>
+        <v>0.01610581030499603</v>
       </c>
       <c r="C48">
-        <v>-0.01669941322461361</v>
+        <v>0.01720621847304371</v>
       </c>
       <c r="D48">
-        <v>-0.01587476619577921</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01018295816103084</v>
+      </c>
+      <c r="E48">
+        <v>0.06614777884747407</v>
+      </c>
+      <c r="F48">
+        <v>0.08371293660661344</v>
+      </c>
+      <c r="G48">
+        <v>-0.04905549902105059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07794696346228226</v>
+        <v>0.06963930874619012</v>
       </c>
       <c r="C50">
-        <v>-0.08339394741407423</v>
+        <v>0.07616956624521948</v>
       </c>
       <c r="D50">
-        <v>-0.0214251466547096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005894276014447242</v>
+      </c>
+      <c r="E50">
+        <v>0.07462774128991501</v>
+      </c>
+      <c r="F50">
+        <v>0.02598594207836067</v>
+      </c>
+      <c r="G50">
+        <v>-0.09003679513678758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01431432794483732</v>
+        <v>0.009862208603707295</v>
       </c>
       <c r="C51">
-        <v>-0.05154333588372847</v>
+        <v>0.03271566453710373</v>
       </c>
       <c r="D51">
-        <v>0.0265558379420323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04894045088338907</v>
+      </c>
+      <c r="E51">
+        <v>0.0425494727891754</v>
+      </c>
+      <c r="F51">
+        <v>0.0869756401451357</v>
+      </c>
+      <c r="G51">
+        <v>-0.02745517808296582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07989991203402048</v>
+        <v>0.09315867356939922</v>
       </c>
       <c r="C53">
-        <v>-0.08062808747250075</v>
+        <v>0.08949549393666195</v>
       </c>
       <c r="D53">
-        <v>-0.04399930445978759</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05120098632715675</v>
+      </c>
+      <c r="E53">
+        <v>0.06737105534416714</v>
+      </c>
+      <c r="F53">
+        <v>0.04480062711094576</v>
+      </c>
+      <c r="G53">
+        <v>-0.07861559139929286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03138091518914082</v>
+        <v>0.0277986780198323</v>
       </c>
       <c r="C54">
-        <v>-0.03250316703608239</v>
+        <v>0.02952277764495342</v>
       </c>
       <c r="D54">
-        <v>-0.001110868283507611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02464217884179765</v>
+      </c>
+      <c r="E54">
+        <v>0.0522318267044355</v>
+      </c>
+      <c r="F54">
+        <v>0.09011148283659443</v>
+      </c>
+      <c r="G54">
+        <v>-0.05442402948956335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07389685673662726</v>
+        <v>0.08482209901156479</v>
       </c>
       <c r="C55">
-        <v>-0.06211121365999887</v>
+        <v>0.07274123977377001</v>
       </c>
       <c r="D55">
-        <v>-0.05034985032482217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05575540711257334</v>
+      </c>
+      <c r="E55">
+        <v>0.04887007155870601</v>
+      </c>
+      <c r="F55">
+        <v>0.02575557496973234</v>
+      </c>
+      <c r="G55">
+        <v>-0.05983459667794495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.143765775683255</v>
+        <v>0.1466785737841561</v>
       </c>
       <c r="C56">
-        <v>-0.1002672245756214</v>
+        <v>0.1105919529274408</v>
       </c>
       <c r="D56">
-        <v>-0.04159513895653182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05241896801118076</v>
+      </c>
+      <c r="E56">
+        <v>0.05009294614626691</v>
+      </c>
+      <c r="F56">
+        <v>0.003340990017251155</v>
+      </c>
+      <c r="G56">
+        <v>-0.04901072694883796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001116707330689401</v>
+        <v>0.0008337985065278611</v>
       </c>
       <c r="C57">
-        <v>0.001118254621301402</v>
+        <v>-0.0006243507842399162</v>
       </c>
       <c r="D57">
-        <v>0.002444397677592301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0008640514172516402</v>
+      </c>
+      <c r="E57">
+        <v>0.003341508291824018</v>
+      </c>
+      <c r="F57">
+        <v>-0.0007931798495165151</v>
+      </c>
+      <c r="G57">
+        <v>0.0009878229894452314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04173305660045829</v>
+        <v>0.02511918449199295</v>
       </c>
       <c r="C58">
-        <v>-0.02005111253505991</v>
+        <v>0.0202291884982768</v>
       </c>
       <c r="D58">
-        <v>0.7701771390813001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4155413628496232</v>
+      </c>
+      <c r="E58">
+        <v>0.6494060921243635</v>
+      </c>
+      <c r="F58">
+        <v>-0.4975069057711908</v>
+      </c>
+      <c r="G58">
+        <v>0.295216423314234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1369548035848659</v>
+        <v>0.1469083884731484</v>
       </c>
       <c r="C59">
-        <v>0.1939574417493758</v>
+        <v>-0.1845575013901331</v>
       </c>
       <c r="D59">
-        <v>0.0201268851381376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02365993250718075</v>
+      </c>
+      <c r="E59">
+        <v>0.02739761922407224</v>
+      </c>
+      <c r="F59">
+        <v>0.02964076257590199</v>
+      </c>
+      <c r="G59">
+        <v>0.0210618613870646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3081052024231803</v>
+        <v>0.2801637675644807</v>
       </c>
       <c r="C60">
-        <v>-0.1072743011189725</v>
+        <v>0.1050756648510866</v>
       </c>
       <c r="D60">
-        <v>0.1317062887917227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.253075675553491</v>
+      </c>
+      <c r="E60">
+        <v>-0.2542446900833382</v>
+      </c>
+      <c r="F60">
+        <v>-0.07038991566722493</v>
+      </c>
+      <c r="G60">
+        <v>-0.03969301862397014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04099671862114519</v>
+        <v>0.039222569322769</v>
       </c>
       <c r="C61">
-        <v>-0.06439107832397735</v>
+        <v>0.06074539810567767</v>
       </c>
       <c r="D61">
-        <v>0.01459069443503918</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04093651280493699</v>
+      </c>
+      <c r="E61">
+        <v>0.04568459303908112</v>
+      </c>
+      <c r="F61">
+        <v>0.07020297835744194</v>
+      </c>
+      <c r="G61">
+        <v>-0.04982764902771056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01483054152738012</v>
+        <v>0.01449006438886406</v>
       </c>
       <c r="C63">
-        <v>-0.03512618238704705</v>
+        <v>0.03231387022347101</v>
       </c>
       <c r="D63">
-        <v>-0.0106863652933382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01650593804232467</v>
+      </c>
+      <c r="E63">
+        <v>0.05806458675600708</v>
+      </c>
+      <c r="F63">
+        <v>0.05642495760292082</v>
+      </c>
+      <c r="G63">
+        <v>-0.05958534523422631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0481192664382591</v>
+        <v>0.05452936101378215</v>
       </c>
       <c r="C64">
-        <v>-0.04920846003640029</v>
+        <v>0.05802504677604911</v>
       </c>
       <c r="D64">
-        <v>0.00178719720414422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004229113023162777</v>
+      </c>
+      <c r="E64">
+        <v>0.03717166745637966</v>
+      </c>
+      <c r="F64">
+        <v>0.07311865769645763</v>
+      </c>
+      <c r="G64">
+        <v>-0.04281151954610935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08329695625434302</v>
+        <v>0.06749082271690893</v>
       </c>
       <c r="C65">
-        <v>-0.03323920512719816</v>
+        <v>0.03097912798007282</v>
       </c>
       <c r="D65">
-        <v>0.05609269415546317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08508084181334639</v>
+      </c>
+      <c r="E65">
+        <v>0.04589936760478275</v>
+      </c>
+      <c r="F65">
+        <v>0.01009450068226808</v>
+      </c>
+      <c r="G65">
+        <v>-0.01698352181688291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05837262553123898</v>
+        <v>0.04950711442400801</v>
       </c>
       <c r="C66">
-        <v>-0.09352502674617325</v>
+        <v>0.08430902346015859</v>
       </c>
       <c r="D66">
-        <v>0.03644595958704656</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07354192355663908</v>
+      </c>
+      <c r="E66">
+        <v>0.04945761128692358</v>
+      </c>
+      <c r="F66">
+        <v>0.08688389185442646</v>
+      </c>
+      <c r="G66">
+        <v>-0.05013154331564298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05036487751953872</v>
+        <v>0.04446171515379164</v>
       </c>
       <c r="C67">
-        <v>-0.03230199597933609</v>
+        <v>0.02842765667265756</v>
       </c>
       <c r="D67">
-        <v>-0.01823217511929054</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.002959129999608661</v>
+      </c>
+      <c r="E67">
+        <v>0.02425788566618786</v>
+      </c>
+      <c r="F67">
+        <v>0.03756276750435632</v>
+      </c>
+      <c r="G67">
+        <v>-0.02383236616579137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.135823105656461</v>
+        <v>0.1558732441839423</v>
       </c>
       <c r="C68">
-        <v>0.2788645222689737</v>
+        <v>-0.2442082608796093</v>
       </c>
       <c r="D68">
-        <v>-0.007477772280468468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01670153669462763</v>
+      </c>
+      <c r="E68">
+        <v>0.04161956927207902</v>
+      </c>
+      <c r="F68">
+        <v>0.0158543936359431</v>
+      </c>
+      <c r="G68">
+        <v>-0.02701270288225345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08852334299232427</v>
+        <v>0.08588024234970308</v>
       </c>
       <c r="C69">
-        <v>-0.07320816729279887</v>
+        <v>0.09008626248949694</v>
       </c>
       <c r="D69">
-        <v>-0.03684058643576146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01196384147900074</v>
+      </c>
+      <c r="E69">
+        <v>0.0549460209972842</v>
+      </c>
+      <c r="F69">
+        <v>0.07196486243424571</v>
+      </c>
+      <c r="G69">
+        <v>-0.06175732273488786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1240197371015158</v>
+        <v>0.146729534596965</v>
       </c>
       <c r="C71">
-        <v>0.2464840970513905</v>
+        <v>-0.2343394362646478</v>
       </c>
       <c r="D71">
-        <v>0.01914501057677531</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001817079065786897</v>
+      </c>
+      <c r="E71">
+        <v>0.06507835603103819</v>
+      </c>
+      <c r="F71">
+        <v>0.03521290506272876</v>
+      </c>
+      <c r="G71">
+        <v>-0.05833453925897027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09008721316136307</v>
+        <v>0.09878185134081896</v>
       </c>
       <c r="C72">
-        <v>-0.0603544558187069</v>
+        <v>0.06008908075939404</v>
       </c>
       <c r="D72">
-        <v>0.003789906999876237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02707467413802978</v>
+      </c>
+      <c r="E72">
+        <v>0.0247221324703969</v>
+      </c>
+      <c r="F72">
+        <v>0.05205915376455235</v>
+      </c>
+      <c r="G72">
+        <v>-0.06120864736935667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4037095382615753</v>
+        <v>0.3425068249065426</v>
       </c>
       <c r="C73">
-        <v>-0.05805091849120197</v>
+        <v>0.07315216149413656</v>
       </c>
       <c r="D73">
-        <v>0.3311087991837562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.508032237447985</v>
+      </c>
+      <c r="E73">
+        <v>-0.4568343095031767</v>
+      </c>
+      <c r="F73">
+        <v>-0.2177105070020808</v>
+      </c>
+      <c r="G73">
+        <v>-0.05119606418674687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1028852115112642</v>
+        <v>0.1089679345505329</v>
       </c>
       <c r="C74">
-        <v>-0.09833585127447539</v>
+        <v>0.09819799118047327</v>
       </c>
       <c r="D74">
-        <v>-0.02382385070324138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04224927109635243</v>
+      </c>
+      <c r="E74">
+        <v>0.06627670664738988</v>
+      </c>
+      <c r="F74">
+        <v>0.001761854510795729</v>
+      </c>
+      <c r="G74">
+        <v>-0.06773924903497408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.251186466552039</v>
+        <v>0.256115739617041</v>
       </c>
       <c r="C75">
-        <v>-0.1107892813729031</v>
+        <v>0.135861119886021</v>
       </c>
       <c r="D75">
-        <v>-0.0967509986449748</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1434823210990574</v>
+      </c>
+      <c r="E75">
+        <v>0.05846408150915033</v>
+      </c>
+      <c r="F75">
+        <v>-0.04644438240657657</v>
+      </c>
+      <c r="G75">
+        <v>-0.02071650065227982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1095622331666592</v>
+        <v>0.1247653450041815</v>
       </c>
       <c r="C76">
-        <v>-0.08867593059812087</v>
+        <v>0.09947111222857992</v>
       </c>
       <c r="D76">
-        <v>-0.05059049889425755</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07103090244167848</v>
+      </c>
+      <c r="E76">
+        <v>0.07451363335698102</v>
+      </c>
+      <c r="F76">
+        <v>0.0256914328676301</v>
+      </c>
+      <c r="G76">
+        <v>-0.05890830055638279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07570865477347599</v>
+        <v>0.06020807695895919</v>
       </c>
       <c r="C77">
-        <v>-0.05981859669804241</v>
+        <v>0.07011246110169114</v>
       </c>
       <c r="D77">
-        <v>0.05015225366876305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05644520987424756</v>
+      </c>
+      <c r="E77">
+        <v>0.09727101383562295</v>
+      </c>
+      <c r="F77">
+        <v>0.1511505274827641</v>
+      </c>
+      <c r="G77">
+        <v>0.1052938830647538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04622126305869249</v>
+        <v>0.04314894904870433</v>
       </c>
       <c r="C78">
-        <v>-0.05193726892942049</v>
+        <v>0.05829888446372503</v>
       </c>
       <c r="D78">
-        <v>0.01630815025289172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05631932242692142</v>
+      </c>
+      <c r="E78">
+        <v>0.05189568460142173</v>
+      </c>
+      <c r="F78">
+        <v>0.0809273605329363</v>
+      </c>
+      <c r="G78">
+        <v>-0.04391821393511436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02853308744008773</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04524649712335675</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06932544198319504</v>
+      </c>
+      <c r="E79">
+        <v>0.06527017186591838</v>
+      </c>
+      <c r="F79">
+        <v>-0.01157528025461171</v>
+      </c>
+      <c r="G79">
+        <v>-0.06258339140507158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03878368337034904</v>
+        <v>0.03040765540364361</v>
       </c>
       <c r="C80">
-        <v>-0.05331605283742041</v>
+        <v>0.05248376918575769</v>
       </c>
       <c r="D80">
-        <v>0.01623113990700623</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03216967199835664</v>
+      </c>
+      <c r="E80">
+        <v>0.0156621781726104</v>
+      </c>
+      <c r="F80">
+        <v>0.04633819302733883</v>
+      </c>
+      <c r="G80">
+        <v>0.03008860069118455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1384000979699212</v>
+        <v>0.1382263152215464</v>
       </c>
       <c r="C81">
-        <v>-0.08152771864921901</v>
+        <v>0.09714807850327262</v>
       </c>
       <c r="D81">
-        <v>-0.06844381090488061</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1125404891914694</v>
+      </c>
+      <c r="E81">
+        <v>0.07725872834823572</v>
+      </c>
+      <c r="F81">
+        <v>-0.02854536953464753</v>
+      </c>
+      <c r="G81">
+        <v>-0.02653149237486331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1678973476251543</v>
+        <v>0.2068153277867982</v>
       </c>
       <c r="C82">
-        <v>-0.09466622494520117</v>
+        <v>0.1572992206423959</v>
       </c>
       <c r="D82">
-        <v>-0.1578016645847316</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2359962155496031</v>
+      </c>
+      <c r="E82">
+        <v>-0.0008865026947345074</v>
+      </c>
+      <c r="F82">
+        <v>0.04674196572100504</v>
+      </c>
+      <c r="G82">
+        <v>-0.04089835962396433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03828992875321654</v>
+        <v>0.02645559868832964</v>
       </c>
       <c r="C83">
-        <v>-0.0313324876995507</v>
+        <v>0.04309565159285778</v>
       </c>
       <c r="D83">
-        <v>0.02614820942760818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02763547145067534</v>
+      </c>
+      <c r="E83">
+        <v>0.02236381118037636</v>
+      </c>
+      <c r="F83">
+        <v>0.04604903786045232</v>
+      </c>
+      <c r="G83">
+        <v>0.004753297179484902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001602915629428042</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008097983178070237</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001149748101304867</v>
+      </c>
+      <c r="E84">
+        <v>0.0007072840222778627</v>
+      </c>
+      <c r="F84">
+        <v>0.0009823131357279968</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002171336408884405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2179475240744169</v>
+        <v>0.2018347463108527</v>
       </c>
       <c r="C85">
-        <v>-0.1070673689855316</v>
+        <v>0.1190081897732601</v>
       </c>
       <c r="D85">
-        <v>-0.131097655711029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1115694532324395</v>
+      </c>
+      <c r="E85">
+        <v>-0.01237949989755524</v>
+      </c>
+      <c r="F85">
+        <v>-0.08871968659729169</v>
+      </c>
+      <c r="G85">
+        <v>-0.0712907207899792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00635213380682658</v>
+        <v>0.008909525651977442</v>
       </c>
       <c r="C86">
-        <v>-0.03276649779194844</v>
+        <v>0.02280547062465595</v>
       </c>
       <c r="D86">
-        <v>0.02649158329722012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04727363860012406</v>
+      </c>
+      <c r="E86">
+        <v>0.06861463687477899</v>
+      </c>
+      <c r="F86">
+        <v>0.1294323165008878</v>
+      </c>
+      <c r="G86">
+        <v>-0.04917267657389439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0229304058260727</v>
+        <v>0.02261264788933088</v>
       </c>
       <c r="C87">
-        <v>-0.00798526215397161</v>
+        <v>0.01552006480153403</v>
       </c>
       <c r="D87">
-        <v>0.08742645347586532</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08096223256620562</v>
+      </c>
+      <c r="E87">
+        <v>0.1211168626985639</v>
+      </c>
+      <c r="F87">
+        <v>0.08257925897777754</v>
+      </c>
+      <c r="G87">
+        <v>0.006997803635633809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1038344624351999</v>
+        <v>0.09174137709288988</v>
       </c>
       <c r="C88">
-        <v>-0.07452009750615768</v>
+        <v>0.06361017673568953</v>
       </c>
       <c r="D88">
-        <v>-0.02317976642342588</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.003176337839992319</v>
+      </c>
+      <c r="E88">
+        <v>0.04538034508986793</v>
+      </c>
+      <c r="F88">
+        <v>0.07586986174401268</v>
+      </c>
+      <c r="G88">
+        <v>-0.0126658726507387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1967003920723519</v>
+        <v>0.2268337391295643</v>
       </c>
       <c r="C89">
-        <v>0.3730548381971039</v>
+        <v>-0.3771838876013367</v>
       </c>
       <c r="D89">
-        <v>-0.03043056141140435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02641119626419744</v>
+      </c>
+      <c r="E89">
+        <v>0.06359424792494256</v>
+      </c>
+      <c r="F89">
+        <v>0.09220326567730704</v>
+      </c>
+      <c r="G89">
+        <v>0.03192876661104525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1874699515186006</v>
+        <v>0.2057278792252217</v>
       </c>
       <c r="C90">
-        <v>0.3304268457213523</v>
+        <v>-0.3094014849752352</v>
       </c>
       <c r="D90">
-        <v>-0.02536794377026869</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0258440118347255</v>
+      </c>
+      <c r="E90">
+        <v>0.06724254827506455</v>
+      </c>
+      <c r="F90">
+        <v>0.03890366610899749</v>
+      </c>
+      <c r="G90">
+        <v>0.0004591316941402303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1871249528530034</v>
+        <v>0.1848415828078037</v>
       </c>
       <c r="C91">
-        <v>-0.1311263515999995</v>
+        <v>0.1467756335780263</v>
       </c>
       <c r="D91">
-        <v>-0.0919060942298357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1187420415262388</v>
+      </c>
+      <c r="E91">
+        <v>0.05618185142322103</v>
+      </c>
+      <c r="F91">
+        <v>-0.01528014738191648</v>
+      </c>
+      <c r="G91">
+        <v>-0.03010774744765784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1693891431687178</v>
+        <v>0.1850653272177638</v>
       </c>
       <c r="C92">
-        <v>0.2751464610538982</v>
+        <v>-0.2827077784511871</v>
       </c>
       <c r="D92">
-        <v>-0.01749466247337168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02667034747814065</v>
+      </c>
+      <c r="E92">
+        <v>0.07386318484634273</v>
+      </c>
+      <c r="F92">
+        <v>0.07488654438101079</v>
+      </c>
+      <c r="G92">
+        <v>-0.01656738287929902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2107440821319729</v>
+        <v>0.2289449458156247</v>
       </c>
       <c r="C93">
-        <v>0.3297598859429829</v>
+        <v>-0.3143804649130664</v>
       </c>
       <c r="D93">
-        <v>-0.0288704488924404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0223916865589284</v>
+      </c>
+      <c r="E93">
+        <v>0.04293080820540902</v>
+      </c>
+      <c r="F93">
+        <v>0.01943785973923687</v>
+      </c>
+      <c r="G93">
+        <v>-0.03458853799525292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3341430068820699</v>
+        <v>0.3382528488923519</v>
       </c>
       <c r="C94">
-        <v>-0.1619229843323222</v>
+        <v>0.194104259141218</v>
       </c>
       <c r="D94">
-        <v>-0.3429016077586641</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4363030393010814</v>
+      </c>
+      <c r="E94">
+        <v>-0.002148090548214031</v>
+      </c>
+      <c r="F94">
+        <v>-0.274305351462563</v>
+      </c>
+      <c r="G94">
+        <v>0.4233353101457313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1100558896218324</v>
+        <v>0.08243007032321381</v>
       </c>
       <c r="C95">
-        <v>-0.07443579838271443</v>
+        <v>0.06401414786298831</v>
       </c>
       <c r="D95">
-        <v>0.1149798892595728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1761736522943881</v>
+      </c>
+      <c r="E95">
+        <v>-0.1001057515387773</v>
+      </c>
+      <c r="F95">
+        <v>0.5300489241953426</v>
+      </c>
+      <c r="G95">
+        <v>0.734003062878296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1940245454686845</v>
+        <v>0.1868508522456347</v>
       </c>
       <c r="C98">
-        <v>-0.02201594274023768</v>
+        <v>0.04384423240945191</v>
       </c>
       <c r="D98">
-        <v>0.1189498609756927</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1953168874240963</v>
+      </c>
+      <c r="E98">
+        <v>-0.13966740408</v>
+      </c>
+      <c r="F98">
+        <v>-0.05401130078996137</v>
+      </c>
+      <c r="G98">
+        <v>-0.08821615991452594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006672773067835994</v>
+        <v>0.005463209514912851</v>
       </c>
       <c r="C101">
-        <v>-0.03344280012740351</v>
+        <v>0.02937580556395859</v>
       </c>
       <c r="D101">
-        <v>-0.01550955971439591</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0157923488909511</v>
+      </c>
+      <c r="E101">
+        <v>0.04633181344719942</v>
+      </c>
+      <c r="F101">
+        <v>0.08485639899376617</v>
+      </c>
+      <c r="G101">
+        <v>-0.05493201714773335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1224326587228734</v>
+        <v>0.1247177457235736</v>
       </c>
       <c r="C102">
-        <v>-0.07623061907265766</v>
+        <v>0.1032126090508359</v>
       </c>
       <c r="D102">
-        <v>-0.03878115155882812</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05237887793740314</v>
+      </c>
+      <c r="E102">
+        <v>-0.005727587199367765</v>
+      </c>
+      <c r="F102">
+        <v>0.0181141191459345</v>
+      </c>
+      <c r="G102">
+        <v>-0.00358566178374816</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
